--- a/Monthly_report.xlsx
+++ b/Monthly_report.xlsx
@@ -548,10 +548,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:P335"/>
+  <dimension ref="B2:P347"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A309" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="Q318" sqref="J318:Q335"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A324" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D347" sqref="D347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -574,6 +574,7 @@
     <col customWidth="1" max="16" min="16" style="11" width="18.6640625"/>
   </cols>
   <sheetData>
+    <row r="1" s="11"/>
     <row customHeight="1" ht="18" r="2" s="11">
       <c r="B2" s="10" t="inlineStr">
         <is>
@@ -1799,54 +1800,25 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C67" s="4" t="inlineStr">
-        <is>
-          <t>building1</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="n">
-        <v>80</v>
-      </c>
+      <c r="B67" s="2" t="inlineStr"/>
+      <c r="C67" s="4" t="inlineStr"/>
+      <c r="D67" s="2" t="inlineStr"/>
       <c r="E67" s="1" t="inlineStr"/>
-      <c r="F67" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G67" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>هذا هو الاختبار</t>
-        </is>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K67" s="4" t="inlineStr">
-        <is>
-          <t>building1</t>
-        </is>
-      </c>
-      <c r="L67" s="2" t="n">
-        <v>12</v>
-      </c>
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr"/>
+      <c r="H67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr"/>
+      <c r="K67" s="4" t="inlineStr"/>
+      <c r="L67" s="2" t="inlineStr"/>
       <c r="M67" s="1" t="inlineStr"/>
-      <c r="N67" s="2" t="n">
-        <v>3</v>
-      </c>
+      <c r="N67" s="2" t="inlineStr"/>
       <c r="O67" s="2" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="P67" s="2" t="inlineStr">
         <is>
-          <t>هذا هو الاختبار</t>
+          <t xml:space="preserve">lkjdna
+</t>
         </is>
       </c>
     </row>
@@ -1868,8 +1840,7 @@
       </c>
       <c r="P68" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">هذا هو الاختبار
-</t>
+          <t>lkanf</t>
         </is>
       </c>
     </row>
@@ -3742,11 +3713,23 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" s="2" t="inlineStr"/>
-      <c r="C172" s="4" t="inlineStr"/>
-      <c r="D172" s="2" t="inlineStr"/>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C172" s="4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>19</v>
+      </c>
       <c r="E172" s="1" t="inlineStr"/>
-      <c r="F172" s="2" t="inlineStr"/>
+      <c r="F172" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="G172" s="2" t="inlineStr"/>
       <c r="H172" s="2" t="inlineStr"/>
       <c r="J172" s="2" t="inlineStr"/>
@@ -6523,6 +6506,84 @@
       </c>
       <c r="H335" s="8">
         <f>SUM(E335+D335)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="337" s="11"/>
+    <row r="341">
+      <c r="C341" s="1" t="inlineStr">
+        <is>
+          <t>مجموع الإيرادات</t>
+        </is>
+      </c>
+      <c r="D341" s="1">
+        <f>SUM(H20+P20+H41+P41+H62+P62+H83+P83+H104+P104+H125+P125+H146+P146+H167+P167+H188+P188+H209+P209+H230+P230+H251+P251+H272+P272+H293+P293+H314+P314+H335)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342">
+      <c r="C342" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">مجموع المصروفات </t>
+        </is>
+      </c>
+      <c r="D342" s="1">
+        <f>SUM(G20+O20+G41+O41+G62+O62+G83+O83+G104+O104+G125+O125+G146+O146+G167+O167+G188+O188+G209+O209+G230+O230+G251+O251+G272+O272+G293+O293+G314+O314+G335)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="343">
+      <c r="C343" s="1" t="inlineStr">
+        <is>
+          <t>صافي الإيرادات</t>
+        </is>
+      </c>
+      <c r="D343" s="1">
+        <f>SUM(D341-D342)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="344">
+      <c r="C344" s="1" t="inlineStr">
+        <is>
+          <t>مجموع الكاش</t>
+        </is>
+      </c>
+      <c r="D344" s="1">
+        <f>SUM(D20+L20+D41+L41+D62+L62+D83+L83+D104+L104+D125+L125+D146+L146+D167+L167+D188+L188+D209+L209+D230+L230+D251+L251+D272+L272+D293+L293+D314+L314+D335)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="345">
+      <c r="C345" s="1" t="inlineStr">
+        <is>
+          <t>مجموع التحويلات</t>
+        </is>
+      </c>
+      <c r="D345" s="1">
+        <f>SUM(E20+M20+E41+M41+E62+M62+E83+M83+E104+M104+E125+M125+E146+M146+E167+M167+E188+M188+E209+M209+E230+M230+E251+M251+E272+M272+E293+M293+E314+M314+E335)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="346">
+      <c r="C346" s="1" t="inlineStr">
+        <is>
+          <t>نسبة الإدارة 5%</t>
+        </is>
+      </c>
+      <c r="D346" s="1">
+        <f>SUM(D341*5/100)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="347">
+      <c r="C347" s="1" t="inlineStr">
+        <is>
+          <t>صافي الإيرادات</t>
+        </is>
+      </c>
+      <c r="D347" s="1">
+        <f>SUM(D343-D346)</f>
         <v/>
       </c>
     </row>
@@ -6542,14 +6603,14 @@
     <mergeCell ref="B149:H149"/>
     <mergeCell ref="B191:H191"/>
     <mergeCell ref="B65:H65"/>
-    <mergeCell ref="J170:P170"/>
+    <mergeCell ref="J86:P86"/>
+    <mergeCell ref="B170:H170"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="J233:P233"/>
-    <mergeCell ref="B170:H170"/>
     <mergeCell ref="J128:P128"/>
+    <mergeCell ref="J170:P170"/>
+    <mergeCell ref="B317:H317"/>
     <mergeCell ref="B128:H128"/>
-    <mergeCell ref="B317:H317"/>
-    <mergeCell ref="J86:P86"/>
     <mergeCell ref="B44:H44"/>
     <mergeCell ref="B212:H212"/>
     <mergeCell ref="B233:H233"/>

--- a/Monthly_report.xlsx
+++ b/Monthly_report.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9072" windowWidth="23040" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ورقة1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ورقة2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ورقة1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ورقة2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -151,31 +151,31 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -550,32 +550,32 @@
   </sheetPr>
   <dimension ref="B2:P347"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A324" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A324" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D347" sqref="D347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="11" width="2.6640625"/>
-    <col customWidth="1" max="2" min="2" style="11" width="5.6640625"/>
-    <col customWidth="1" max="3" min="3" style="11" width="11.21875"/>
-    <col customWidth="1" max="4" min="4" style="11" width="6.44140625"/>
-    <col customWidth="1" max="5" min="5" style="11" width="7.44140625"/>
-    <col customWidth="1" max="6" min="6" style="11" width="6.109375"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="11" width="7.77734375"/>
-    <col customWidth="1" max="8" min="8" style="11" width="18.6640625"/>
-    <col customWidth="1" max="9" min="9" style="11" width="3.44140625"/>
-    <col customWidth="1" max="10" min="10" style="11" width="5.6640625"/>
-    <col customWidth="1" max="11" min="11" style="11" width="11"/>
-    <col customWidth="1" max="12" min="12" style="11" width="6.44140625"/>
-    <col customWidth="1" max="13" min="13" style="11" width="7.44140625"/>
-    <col customWidth="1" max="14" min="14" style="11" width="6.21875"/>
-    <col customWidth="1" max="15" min="15" style="11" width="7.77734375"/>
-    <col customWidth="1" max="16" min="16" style="11" width="18.6640625"/>
+    <col width="2.6640625" customWidth="1" style="11" min="1" max="1"/>
+    <col width="5.6640625" customWidth="1" style="11" min="2" max="2"/>
+    <col width="11.21875" customWidth="1" style="11" min="3" max="3"/>
+    <col width="6.44140625" customWidth="1" style="11" min="4" max="4"/>
+    <col width="7.44140625" customWidth="1" style="11" min="5" max="5"/>
+    <col width="6.109375" customWidth="1" style="11" min="6" max="6"/>
+    <col width="7.77734375" bestFit="1" customWidth="1" style="11" min="7" max="7"/>
+    <col width="18.6640625" customWidth="1" style="11" min="8" max="8"/>
+    <col width="3.44140625" customWidth="1" style="11" min="9" max="9"/>
+    <col width="5.6640625" customWidth="1" style="11" min="10" max="10"/>
+    <col width="11" customWidth="1" style="11" min="11" max="11"/>
+    <col width="6.44140625" customWidth="1" style="11" min="12" max="12"/>
+    <col width="7.44140625" customWidth="1" style="11" min="13" max="13"/>
+    <col width="6.21875" customWidth="1" style="11" min="14" max="14"/>
+    <col width="7.77734375" customWidth="1" style="11" min="15" max="15"/>
+    <col width="18.6640625" customWidth="1" style="11" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1" s="11"/>
-    <row customHeight="1" ht="18" r="2" s="11">
+    <row r="2" ht="18" customHeight="1" s="11">
       <c r="B2" s="10" t="inlineStr">
         <is>
           <t>تاريخ اليوم        1   \  11     \ 2022</t>
@@ -955,7 +955,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="23" s="11">
+    <row r="23" ht="18" customHeight="1" s="11">
       <c r="B23" s="10" t="inlineStr">
         <is>
           <t>تاريخ اليوم        3   \  11     \ 2022</t>
@@ -1335,7 +1335,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="44" s="11">
+    <row r="44" ht="18" customHeight="1" s="11">
       <c r="B44" s="10" t="inlineStr">
         <is>
           <t>تاريخ اليوم        5   \  11     \ 2022</t>
@@ -1715,7 +1715,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="65" s="11">
+    <row r="65" ht="18" customHeight="1" s="11">
       <c r="B65" s="10" t="inlineStr">
         <is>
           <t>تاريخ اليوم       7   \  11     \ 2022</t>
@@ -1812,15 +1812,8 @@
       <c r="L67" s="2" t="inlineStr"/>
       <c r="M67" s="1" t="inlineStr"/>
       <c r="N67" s="2" t="inlineStr"/>
-      <c r="O67" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="P67" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">lkjdna
-</t>
-        </is>
-      </c>
+      <c r="O67" s="2" t="inlineStr"/>
+      <c r="P67" s="2" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="B68" s="2" t="inlineStr"/>
@@ -1835,14 +1828,8 @@
       <c r="L68" s="2" t="inlineStr"/>
       <c r="M68" s="2" t="inlineStr"/>
       <c r="N68" s="2" t="inlineStr"/>
-      <c r="O68" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="P68" s="2" t="inlineStr">
-        <is>
-          <t>lkanf</t>
-        </is>
-      </c>
+      <c r="O68" s="2" t="inlineStr"/>
+      <c r="P68" s="2" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="B69" s="1" t="inlineStr"/>
@@ -2108,7 +2095,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="86" s="11">
+    <row r="86" ht="18" customHeight="1" s="11">
       <c r="B86" s="10" t="inlineStr">
         <is>
           <t>تاريخ اليوم        9   \  11     \ 2022</t>
@@ -2488,7 +2475,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="107" s="11">
+    <row r="107" ht="18" customHeight="1" s="11">
       <c r="B107" s="10" t="inlineStr">
         <is>
           <t>تاريخ اليوم        11   \  11     \ 2022</t>
@@ -2868,7 +2855,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="128" s="11">
+    <row r="128" ht="18" customHeight="1" s="11">
       <c r="B128" s="10" t="inlineStr">
         <is>
           <t>تاريخ اليوم        13   \  11     \ 2022</t>
@@ -3248,7 +3235,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="149" s="11">
+    <row r="149" ht="18" customHeight="1" s="11">
       <c r="B149" s="10" t="inlineStr">
         <is>
           <t>تاريخ اليوم        15   \  11     \ 2022</t>
@@ -3628,7 +3615,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="170" s="11">
+    <row r="170" ht="18" customHeight="1" s="11">
       <c r="B170" s="10" t="inlineStr">
         <is>
           <t>تاريخ اليوم        17   \  11     \ 2022</t>
@@ -3713,23 +3700,11 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C172" s="4" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D172" s="2" t="n">
-        <v>19</v>
-      </c>
+      <c r="B172" s="2" t="inlineStr"/>
+      <c r="C172" s="4" t="inlineStr"/>
+      <c r="D172" s="2" t="inlineStr"/>
       <c r="E172" s="1" t="inlineStr"/>
-      <c r="F172" s="2" t="n">
-        <v>5</v>
-      </c>
+      <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr"/>
       <c r="H172" s="2" t="inlineStr"/>
       <c r="J172" s="2" t="inlineStr"/>
@@ -4020,7 +3995,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="191" s="11">
+    <row r="191" ht="18" customHeight="1" s="11">
       <c r="B191" s="10" t="inlineStr">
         <is>
           <t>تاريخ اليوم        19   \  11     \ 2022</t>
@@ -4400,7 +4375,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="212" s="11">
+    <row r="212" ht="18" customHeight="1" s="11">
       <c r="B212" s="10" t="inlineStr">
         <is>
           <t>تاريخ اليوم        21   \  11     \ 2022</t>
@@ -4780,7 +4755,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="233" s="11">
+    <row r="233" ht="18" customHeight="1" s="11">
       <c r="B233" s="10" t="inlineStr">
         <is>
           <t>تاريخ اليوم        23   \  11     \ 2022</t>
@@ -5160,7 +5135,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="254" s="11">
+    <row r="254" ht="18" customHeight="1" s="11">
       <c r="B254" s="10" t="inlineStr">
         <is>
           <t>تاريخ اليوم        25   \  11     \ 2022</t>
@@ -5540,7 +5515,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="275" s="11">
+    <row r="275" ht="18" customHeight="1" s="11">
       <c r="B275" s="10" t="inlineStr">
         <is>
           <t>تاريخ اليوم        27   \  11     \ 2022</t>
@@ -5920,7 +5895,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="296" s="11">
+    <row r="296" ht="18" customHeight="1" s="11">
       <c r="B296" s="10" t="inlineStr">
         <is>
           <t>تاريخ اليوم        29   \  11     \ 2022</t>
@@ -6300,7 +6275,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="317" s="11">
+    <row r="317" ht="18" customHeight="1" s="11">
       <c r="B317" s="10" t="inlineStr">
         <is>
           <t>تاريخ اليوم        31   \  11     \ 2022</t>
@@ -6621,7 +6596,7 @@
     <mergeCell ref="J107:P107"/>
     <mergeCell ref="J149:P149"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
@@ -6640,6 +6615,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>